--- a/Schemota/lect11.xlsx
+++ b/Schemota/lect11.xlsx
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,8 +693,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E20" s="1" t="s">
+    <row r="21" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
